--- a/forecast_summary_B0CTTWH6TD.xlsx
+++ b/forecast_summary_B0CTTWH6TD.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-11.29985091235119</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.867741550595886</v>
+        <v>-3.638435784461143</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-60.09725606521431</v>
       </c>
       <c r="D3" t="n">
-        <v>-51.5590698945421</v>
+        <v>-51.63266505229021</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-131.8096383938351</v>
       </c>
       <c r="D4" t="n">
-        <v>-123.8837071173063</v>
+        <v>-123.815163714505</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-168.1962060376078</v>
       </c>
       <c r="D5" t="n">
-        <v>-159.3723101839902</v>
+        <v>-159.9475851605845</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-110.9550862374622</v>
       </c>
       <c r="D6" t="n">
-        <v>-102.6263504413868</v>
+        <v>-102.8222131864488</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>31.75587382910945</v>
       </c>
       <c r="D7" t="n">
-        <v>40.0485555396307</v>
+        <v>39.66537044349926</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>170.9498816135759</v>
       </c>
       <c r="D8" t="n">
-        <v>180.0608924571676</v>
+        <v>178.2720275228099</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>205.3322249320085</v>
       </c>
       <c r="D9" t="n">
-        <v>213.7595283779301</v>
+        <v>213.1538590170668</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>114.5342947082006</v>
       </c>
       <c r="D10" t="n">
-        <v>122.4602628706599</v>
+        <v>122.4564656169856</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-17.33456563966026</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.191765290834454</v>
+        <v>-9.420148280621918</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-76.930126107875</v>
       </c>
       <c r="D12" t="n">
-        <v>-68.94981189723688</v>
+        <v>-68.69057074931068</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-23.05773977517991</v>
       </c>
       <c r="D13" t="n">
-        <v>-14.97800467796091</v>
+        <v>-15.17099031112505</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>85.58039524828271</v>
       </c>
       <c r="D14" t="n">
-        <v>93.94192594026862</v>
+        <v>93.97032437748618</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C15" t="n">
         <v>157.7224951667763</v>
       </c>
       <c r="D15" t="n">
-        <v>165.4340948501485</v>
+        <v>165.6043103303555</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>156.1082263897989</v>
       </c>
       <c r="D16" t="n">
-        <v>164.1306740191514</v>
+        <v>164.6141008444046</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>116.4913510464828</v>
       </c>
       <c r="D17" t="n">
-        <v>125.2231332395715</v>
+        <v>124.263371822856</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>92.94236034070674</v>
       </c>
       <c r="D18" t="n">
-        <v>101.5801249821872</v>
+        <v>101.3296697927338</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>99.62022201062105</v>
       </c>
       <c r="D19" t="n">
-        <v>107.932126475515</v>
+        <v>107.2893752395828</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>109.343856575137</v>
       </c>
       <c r="D20" t="n">
-        <v>117.5912416858072</v>
+        <v>117.7453835022995</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>96.35897031273031</v>
       </c>
       <c r="D21" t="n">
-        <v>105.1487135150269</v>
+        <v>103.7947313162345</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z790 D AC</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>1045</t>
         </is>
       </c>
     </row>
